--- a/tests/avoidanceTest/Random Point Test.xlsx
+++ b/tests/avoidanceTest/Random Point Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\code\control\tests\avoidanceTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C005CF5-99FB-48F7-8168-FB46C173A918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7FCA35-857B-446D-933F-B092DD29AA23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45A85AE1-A353-4FD1-A839-36F596773CF1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
   <si>
     <t>Reach the Goal (y/n)</t>
   </si>
@@ -195,7 +195,10 @@
     <t>Ground floor at the beggining, flies into obstacle</t>
   </si>
   <si>
-    <t>Perfect Runs, 33</t>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -290,21 +293,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -383,9 +371,27 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -396,9 +402,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
@@ -407,25 +411,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,9 +433,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,127 +467,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,7 +614,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -916,19 +910,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCD0CA4-E78E-48A7-AEC9-9845899D282B}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16" style="17" customWidth="1"/>
-    <col min="8" max="9" width="16" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="56"/>
+    <col min="4" max="6" width="16" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16" style="16" customWidth="1"/>
+    <col min="8" max="9" width="16" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="34"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -954,11 +948,13 @@
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="43"/>
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
       <c r="M1" s="1"/>
@@ -966,1290 +962,1366 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>1</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="55"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7">
+      <c r="A3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15">
         <v>2</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="33">
         <v>42.363999999999997</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
+      <c r="I3" s="35"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="33">
         <v>48.787399999999998</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="55"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="A5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="15">
         <v>2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="33">
         <v>41.339399999999998</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32">
+      <c r="A6" s="42"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="22">
         <v>5</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="35">
+      <c r="D6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="25">
         <v>3</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="58">
         <v>44.276800000000001</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="51" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="51"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
+      <c r="J8" s="45"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>2</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
+      <c r="J9" s="45"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>2</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32">
+      <c r="J10" s="45"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="22">
         <v>5</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="25">
         <v>1</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="38">
+      <c r="D12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27">
         <v>2</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="52">
         <v>70.607900000000001</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="15">
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="54">
         <v>46.537999999999997</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="15">
         <v>2</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="54">
         <v>40.808199999999999</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7">
+      <c r="A15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="6">
         <v>4</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="15">
         <v>1</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="54">
         <v>39.453299999999999</v>
       </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32">
+      <c r="I15" s="35"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="22">
         <v>5</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="D16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="25">
         <v>2</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="55">
         <v>83.924199999999999</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="55"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="27">
         <v>4</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="A18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="15">
         <v>3</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="54">
         <v>47.975200000000001</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="A19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="15">
         <v>4</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="54">
         <v>48.797899999999998</v>
       </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7">
+      <c r="I19" s="35"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>0</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="55"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32">
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="22">
         <v>5</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="25">
         <v>0</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="38">
+      <c r="D22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="27">
         <v>0</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="52">
         <v>14.007400000000001</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="16">
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="15">
         <v>0</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="54">
         <v>14.6434</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="15">
         <v>0</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="54">
         <v>16.0548</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7">
+      <c r="A25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="15">
         <v>1</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="54">
         <v>17.753499999999999</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32">
+      <c r="A26" s="42"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="22">
         <v>5</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="D26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="25">
         <v>0</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="55">
         <v>15.775700000000001</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="18">
         <v>1</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="38">
+      <c r="D27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="27">
         <v>4</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="52">
         <v>38.247500000000002</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="K27" s="9"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="15">
         <v>2</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="54">
         <v>45.099299999999999</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="K28" s="9"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7">
+      <c r="A29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="15">
         <v>3</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="54">
         <v>44.0214</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="K29" s="9"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7">
+      <c r="A30" s="41"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="6">
         <v>4</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="15">
         <v>3</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="54">
         <v>38.116599999999998</v>
       </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32">
+      <c r="A31" s="42"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22">
         <v>5</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="35">
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="25">
         <v>3</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="55">
         <v>43.131700000000002</v>
       </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="18">
         <v>1</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="38">
+      <c r="D32" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="27">
         <v>3</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="52">
         <v>56.071899999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7">
+      <c r="I32" s="49"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>0</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="15">
         <v>2</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="54">
         <v>49.443300000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7">
+      <c r="I34" s="35"/>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="16">
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="15">
         <v>2</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32">
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="22">
         <v>5</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="41" t="s">
+      <c r="D36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="25">
         <v>4</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="I36" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="57"/>
+      <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="18">
         <v>1</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="38">
+      <c r="D37" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="27">
         <v>1</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="52">
         <v>19.847999999999999</v>
       </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="16">
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="15">
         <v>0</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="54">
         <v>25.221800000000002</v>
       </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7">
+      <c r="A39" s="41"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="16">
+      <c r="D39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="15">
         <v>1</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="54">
         <v>19.931000000000001</v>
       </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7">
+      <c r="A40" s="41"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16">
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="15">
         <v>1</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="54">
         <v>16.922899999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32">
+      <c r="I40" s="35"/>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22">
         <v>5</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="41" t="s">
+      <c r="D41" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="25">
         <v>0</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="18">
         <v>1</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="38">
+      <c r="D42" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="27">
         <v>3</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="52">
         <v>25.7837</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7">
+      <c r="I42" s="49"/>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="16">
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="15">
         <v>1</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="54" t="s">
+      <c r="I43" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="57"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7">
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="6">
         <v>3</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="D44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <v>2</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="54" t="s">
+      <c r="I44" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="57"/>
+      <c r="J44" s="45"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7">
+      <c r="A45" s="41"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="6">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="15">
         <v>1</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="54">
         <v>23.613900000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32">
+      <c r="I45" s="35"/>
+      <c r="J45" s="45"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="22">
         <v>5</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="41" t="s">
+      <c r="D46" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="35">
+      <c r="F46" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="25">
         <v>5</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="55">
         <v>61.085999999999999</v>
       </c>
-      <c r="I46" s="54" t="s">
+      <c r="I46" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="18">
         <v>1</v>
       </c>
-      <c r="D47" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="38">
+      <c r="D47" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="27">
         <v>0</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="50">
         <v>9.2994199999999996</v>
       </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7">
+      <c r="A48" s="41"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="16">
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="51">
         <v>8.8414699999999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7">
+      <c r="I48" s="35"/>
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="6">
         <v>3</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="16">
+      <c r="D49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="51">
         <v>9.6248799999999992</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7">
+      <c r="I49" s="35"/>
+      <c r="J49" s="45"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="6">
         <v>4</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="16">
+      <c r="D50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="15">
         <v>0</v>
       </c>
-      <c r="H50" s="49">
+      <c r="H50" s="51">
         <v>8.5852199999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32">
+      <c r="I50" s="35"/>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="22">
         <v>5</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="35">
+      <c r="D51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="25">
         <v>1</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51" s="48">
         <v>11.489699999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="15">
+      <c r="I51" s="47"/>
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="14">
         <v>50</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="32">
         <f>COUNTA(D45:D51,D42,D37:D40,D34,D22:D32,D18:D19,D12:D16,D3:D6)/C52</f>
         <v>0.7</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="32">
         <f>COUNTA(E47:E51,E44:E45,E42,E37:E40,E34:E35,E32,E22:E31,E18:E19,E12:E16,E5:E6,E3)/C52</f>
         <v>0.7</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="32">
         <f>COUNTA(F45:F51,F42:F43,F37:F40,F34,F22:F32,F18:F19,F12:F16,F8,F3:F6)/C52</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="53">
-        <f>COUNTA(D47:D51,D45,D42,D37:D40,D34,D32,D22:D31,D12:D16,D18:D19,D3,D5:D6)/C52</f>
-        <v>0.66</v>
-      </c>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="I53" s="34"/>
+      <c r="J53"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:G51" xr:uid="{EF7D69D3-3208-4B33-9619-85FF753FAAB4}"/>
-  <mergeCells count="40">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
+  <mergeCells count="72">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="K7:K11"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I4:J4"/>
@@ -2258,26 +2330,29 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
